--- a/biokart_website_automation/Biokart_saranya_data.xlsx
+++ b/biokart_website_automation/Biokart_saranya_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="208">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -622,6 +622,30 @@
   </si>
   <si>
     <t>Minor</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and About Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and Services Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and Contact Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and Payment Policy Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and Sanger Based Services Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and NGS Based Services Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and Bioinformatics Consultancy Services Page should be ready</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL should be present,Home and Products and Services Page should be ready</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K467"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3179,7 +3203,7 @@
         <v>41</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -3572,7 +3596,7 @@
         <v>41</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -3965,7 +3989,7 @@
         <v>41</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -4358,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -5144,7 +5168,7 @@
         <v>41</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -5537,7 +5561,7 @@
         <v>41</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
@@ -5930,7 +5954,7 @@
         <v>41</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
@@ -6323,7 +6347,7 @@
         <v>41</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
@@ -7981,7 +8005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
